--- a/templates/dataplant/MIAPPE_nutrients.xlsx
+++ b/templates/dataplant/MIAPPE_nutrients.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="615" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB5EC7FD-D964-4761-8427-AE1B06D5C35F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200F94D3-14E9-4289-AD8C-9FD7BD51D6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nutrients" sheetId="1" r:id="rId1"/>
@@ -121,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>Source Name</t>
   </si>
@@ -418,6 +423,9 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
   </si>
 </sst>
 </file>
@@ -429,7 +437,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;liter&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;decisiemens per meter&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,7 +625,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -1150,41 +1158,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="64.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="68.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="81.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="59.85546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="29.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="52.85546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="67.85546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="79.85546875" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="79.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="78.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="68.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="81.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="59.88671875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="29.88671875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="52.88671875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="67.88671875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="79.88671875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="79.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1350,7 +1358,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
@@ -1406,7 +1414,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
@@ -1474,17 +1482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42B2EA7-05CB-496E-8C15-1175E369F4A9}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>60</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>62</v>
       </c>
@@ -1508,7 +1516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50.25" customHeight="1">
+    <row r="4" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>64</v>
       </c>
@@ -1516,13 +1524,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
@@ -1530,37 +1540,37 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>74</v>
       </c>
@@ -1571,25 +1581,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>80</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>83</v>
       </c>
@@ -1611,13 +1621,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>87</v>
       </c>
@@ -1628,25 +1638,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="12"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B22" s="12"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>93</v>
       </c>
@@ -1657,25 +1667,25 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>98</v>
       </c>
